--- a/Server/App_Data/BM.18-QT.05.08 NKVH noi hoi CDQ.xlsx
+++ b/Server/App_Data/BM.18-QT.05.08 NKVH noi hoi CDQ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NM.NHIETDIEN\NM.Nhietdien\Server\App_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\levandat4\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C50E77-7C4B-4D48-9421-072D59ECB79A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CDA306-5777-49C2-A50C-419D9564A751}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4BBFA400-8B72-4BB1-866C-3A8AE7F7F4B8}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="117">
   <si>
     <t>BM.18/QT.05.08</t>
   </si>
@@ -253,6 +253,9 @@
     <t>TS</t>
   </si>
   <si>
+    <t>Tag1</t>
+  </si>
+  <si>
     <t>Tag2</t>
   </si>
   <si>
@@ -410,6 +413,9 @@
   </si>
   <si>
     <t>Tag55</t>
+  </si>
+  <si>
+    <t>Tag53</t>
   </si>
 </sst>
 </file>
@@ -643,7 +649,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -702,8 +708,47 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -719,48 +764,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1267,8 +1270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530E48FA-919E-49AB-BE20-DF0AF440190A}">
   <dimension ref="A1:BV40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="AF1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="AQ19" sqref="AQ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1320,20 +1323,20 @@
       <c r="AP1" s="2"/>
       <c r="AQ1" s="2"/>
       <c r="AR1" s="2"/>
-      <c r="AS1" s="30" t="s">
+      <c r="AS1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="AT1" s="30"/>
-      <c r="AU1" s="30"/>
-      <c r="AV1" s="30"/>
-      <c r="AW1" s="30"/>
-      <c r="AX1" s="30"/>
-      <c r="AY1" s="30"/>
-      <c r="AZ1" s="30"/>
-      <c r="BA1" s="30"/>
-      <c r="BB1" s="30"/>
-      <c r="BC1" s="30"/>
-      <c r="BD1" s="30"/>
+      <c r="AT1" s="31"/>
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="31"/>
+      <c r="AW1" s="31"/>
+      <c r="AX1" s="31"/>
+      <c r="AY1" s="31"/>
+      <c r="AZ1" s="31"/>
+      <c r="BA1" s="31"/>
+      <c r="BB1" s="31"/>
+      <c r="BC1" s="31"/>
+      <c r="BD1" s="31"/>
     </row>
     <row r="2" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -1379,20 +1382,20 @@
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2"/>
       <c r="AR2" s="2"/>
-      <c r="AS2" s="30" t="s">
+      <c r="AS2" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="AT2" s="30"/>
-      <c r="AU2" s="30"/>
-      <c r="AV2" s="30"/>
-      <c r="AW2" s="30"/>
-      <c r="AX2" s="30"/>
-      <c r="AY2" s="30"/>
-      <c r="AZ2" s="30"/>
-      <c r="BA2" s="30"/>
-      <c r="BB2" s="30"/>
-      <c r="BC2" s="30"/>
-      <c r="BD2" s="30"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="31"/>
+      <c r="AY2" s="31"/>
+      <c r="AZ2" s="31"/>
+      <c r="BA2" s="31"/>
+      <c r="BB2" s="31"/>
+      <c r="BC2" s="31"/>
+      <c r="BD2" s="31"/>
     </row>
     <row r="3" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -1438,302 +1441,302 @@
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2"/>
       <c r="AR3" s="2"/>
-      <c r="AS3" s="41" t="s">
+      <c r="AS3" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="AT3" s="41"/>
-      <c r="AU3" s="41"/>
-      <c r="AV3" s="41"/>
-      <c r="AW3" s="41"/>
-      <c r="AX3" s="41"/>
-      <c r="AY3" s="41"/>
-      <c r="AZ3" s="41"/>
-      <c r="BA3" s="41"/>
-      <c r="BB3" s="41"/>
-      <c r="BC3" s="41"/>
-      <c r="BD3" s="41"/>
+      <c r="AT3" s="37"/>
+      <c r="AU3" s="37"/>
+      <c r="AV3" s="37"/>
+      <c r="AW3" s="37"/>
+      <c r="AX3" s="37"/>
+      <c r="AY3" s="37"/>
+      <c r="AZ3" s="37"/>
+      <c r="BA3" s="37"/>
+      <c r="BB3" s="37"/>
+      <c r="BC3" s="37"/>
+      <c r="BD3" s="37"/>
     </row>
     <row r="4" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="42"/>
-      <c r="AM4" s="42"/>
-      <c r="AN4" s="42"/>
-      <c r="AO4" s="42"/>
-      <c r="AP4" s="42"/>
-      <c r="AQ4" s="42"/>
-      <c r="AR4" s="42"/>
-      <c r="AS4" s="42"/>
-      <c r="AT4" s="42"/>
-      <c r="AU4" s="42"/>
-      <c r="AV4" s="42"/>
-      <c r="AW4" s="42"/>
-      <c r="AX4" s="42"/>
-      <c r="AY4" s="42"/>
-      <c r="AZ4" s="42"/>
-      <c r="BA4" s="42"/>
-      <c r="BB4" s="42"/>
-      <c r="BC4" s="42"/>
-      <c r="BD4" s="42"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="24"/>
+      <c r="AK4" s="24"/>
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="24"/>
+      <c r="AN4" s="24"/>
+      <c r="AO4" s="24"/>
+      <c r="AP4" s="24"/>
+      <c r="AQ4" s="24"/>
+      <c r="AR4" s="24"/>
+      <c r="AS4" s="24"/>
+      <c r="AT4" s="24"/>
+      <c r="AU4" s="24"/>
+      <c r="AV4" s="24"/>
+      <c r="AW4" s="24"/>
+      <c r="AX4" s="24"/>
+      <c r="AY4" s="24"/>
+      <c r="AZ4" s="24"/>
+      <c r="BA4" s="24"/>
+      <c r="BB4" s="24"/>
+      <c r="BC4" s="24"/>
+      <c r="BD4" s="24"/>
     </row>
     <row r="5" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="31"/>
-      <c r="AJ5" s="31"/>
-      <c r="AK5" s="31"/>
-      <c r="AL5" s="31"/>
-      <c r="AM5" s="31"/>
-      <c r="AN5" s="31"/>
-      <c r="AO5" s="31"/>
-      <c r="AP5" s="31"/>
-      <c r="AQ5" s="31"/>
-      <c r="AR5" s="31"/>
-      <c r="AS5" s="31"/>
-      <c r="AT5" s="31"/>
-      <c r="AU5" s="31"/>
-      <c r="AV5" s="31"/>
-      <c r="AW5" s="31"/>
-      <c r="AX5" s="31"/>
-      <c r="AY5" s="31"/>
-      <c r="AZ5" s="31"/>
-      <c r="BA5" s="31"/>
-      <c r="BB5" s="31"/>
-      <c r="BC5" s="31"/>
-      <c r="BD5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="32"/>
+      <c r="AA5" s="32"/>
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="32"/>
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="32"/>
+      <c r="AH5" s="32"/>
+      <c r="AI5" s="32"/>
+      <c r="AJ5" s="32"/>
+      <c r="AK5" s="32"/>
+      <c r="AL5" s="32"/>
+      <c r="AM5" s="32"/>
+      <c r="AN5" s="32"/>
+      <c r="AO5" s="32"/>
+      <c r="AP5" s="32"/>
+      <c r="AQ5" s="32"/>
+      <c r="AR5" s="32"/>
+      <c r="AS5" s="32"/>
+      <c r="AT5" s="32"/>
+      <c r="AU5" s="32"/>
+      <c r="AV5" s="32"/>
+      <c r="AW5" s="32"/>
+      <c r="AX5" s="32"/>
+      <c r="AY5" s="32"/>
+      <c r="AZ5" s="32"/>
+      <c r="BA5" s="32"/>
+      <c r="BB5" s="32"/>
+      <c r="BC5" s="32"/>
+      <c r="BD5" s="32"/>
     </row>
     <row r="6" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="32" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="32" t="s">
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="AB6" s="33"/>
-      <c r="AC6" s="33"/>
-      <c r="AD6" s="38" t="s">
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="38"/>
-      <c r="AG6" s="38" t="s">
+      <c r="AE6" s="25"/>
+      <c r="AF6" s="25"/>
+      <c r="AG6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="AH6" s="38"/>
-      <c r="AI6" s="38"/>
-      <c r="AJ6" s="38"/>
-      <c r="AK6" s="38"/>
-      <c r="AL6" s="38"/>
-      <c r="AM6" s="38"/>
-      <c r="AN6" s="38"/>
-      <c r="AO6" s="38"/>
-      <c r="AP6" s="38"/>
-      <c r="AQ6" s="38"/>
-      <c r="AR6" s="38"/>
-      <c r="AS6" s="38"/>
-      <c r="AT6" s="38"/>
-      <c r="AU6" s="38"/>
-      <c r="AV6" s="38"/>
-      <c r="AW6" s="38"/>
-      <c r="AX6" s="38"/>
-      <c r="AY6" s="38"/>
-      <c r="AZ6" s="38"/>
-      <c r="BA6" s="38"/>
-      <c r="BB6" s="38"/>
-      <c r="BC6" s="38"/>
-      <c r="BD6" s="38"/>
+      <c r="AH6" s="25"/>
+      <c r="AI6" s="25"/>
+      <c r="AJ6" s="25"/>
+      <c r="AK6" s="25"/>
+      <c r="AL6" s="25"/>
+      <c r="AM6" s="25"/>
+      <c r="AN6" s="25"/>
+      <c r="AO6" s="25"/>
+      <c r="AP6" s="25"/>
+      <c r="AQ6" s="25"/>
+      <c r="AR6" s="25"/>
+      <c r="AS6" s="25"/>
+      <c r="AT6" s="25"/>
+      <c r="AU6" s="25"/>
+      <c r="AV6" s="25"/>
+      <c r="AW6" s="25"/>
+      <c r="AX6" s="25"/>
+      <c r="AY6" s="25"/>
+      <c r="AZ6" s="25"/>
+      <c r="BA6" s="25"/>
+      <c r="BB6" s="25"/>
+      <c r="BC6" s="25"/>
+      <c r="BD6" s="25"/>
     </row>
     <row r="7" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35"/>
-      <c r="B7" s="38" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="36" t="s">
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="39" t="s">
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="39" t="s">
+      <c r="O7" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="39" t="s">
+      <c r="P7" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="38" t="s">
+      <c r="Q7" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="36" t="s">
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="36"/>
-      <c r="AA7" s="39" t="s">
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="AB7" s="39" t="s">
+      <c r="AB7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="AC7" s="39" t="s">
+      <c r="AC7" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="AD7" s="43" t="s">
+      <c r="AD7" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="AE7" s="43" t="s">
+      <c r="AE7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="AF7" s="43" t="s">
+      <c r="AF7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="AG7" s="38" t="s">
+      <c r="AG7" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AH7" s="38"/>
-      <c r="AI7" s="38"/>
-      <c r="AJ7" s="38"/>
-      <c r="AK7" s="38"/>
-      <c r="AL7" s="38"/>
-      <c r="AM7" s="38"/>
-      <c r="AN7" s="38"/>
-      <c r="AO7" s="38" t="s">
+      <c r="AH7" s="25"/>
+      <c r="AI7" s="25"/>
+      <c r="AJ7" s="25"/>
+      <c r="AK7" s="25"/>
+      <c r="AL7" s="25"/>
+      <c r="AM7" s="25"/>
+      <c r="AN7" s="25"/>
+      <c r="AO7" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AP7" s="38"/>
-      <c r="AQ7" s="38"/>
-      <c r="AR7" s="38"/>
-      <c r="AS7" s="38"/>
-      <c r="AT7" s="38"/>
-      <c r="AU7" s="38"/>
-      <c r="AV7" s="38"/>
-      <c r="AW7" s="32" t="s">
+      <c r="AP7" s="25"/>
+      <c r="AQ7" s="25"/>
+      <c r="AR7" s="25"/>
+      <c r="AS7" s="25"/>
+      <c r="AT7" s="25"/>
+      <c r="AU7" s="25"/>
+      <c r="AV7" s="25"/>
+      <c r="AW7" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="AX7" s="33"/>
-      <c r="AY7" s="33"/>
-      <c r="AZ7" s="33"/>
-      <c r="BA7" s="33"/>
-      <c r="BB7" s="33"/>
-      <c r="BC7" s="33"/>
-      <c r="BD7" s="37"/>
+      <c r="AX7" s="27"/>
+      <c r="AY7" s="27"/>
+      <c r="AZ7" s="27"/>
+      <c r="BA7" s="27"/>
+      <c r="BB7" s="27"/>
+      <c r="BC7" s="27"/>
+      <c r="BD7" s="36"/>
     </row>
     <row r="8" spans="1:56" ht="162" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
@@ -1775,9 +1778,9 @@
       <c r="M8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
       <c r="Q8" s="6" t="s">
         <v>29</v>
       </c>
@@ -1808,12 +1811,12 @@
       <c r="Z8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AA8" s="40"/>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="43"/>
-      <c r="AE8" s="43"/>
-      <c r="AF8" s="43"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="30"/>
+      <c r="AE8" s="30"/>
+      <c r="AF8" s="30"/>
       <c r="AG8" s="8" t="s">
         <v>34</v>
       </c>
@@ -2153,170 +2156,170 @@
       <c r="A11" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="U11" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="V11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="W11" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="X11" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y11" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z11" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA11" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB11" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC11" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD11" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE11" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF11" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG11" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH11" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI11" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ11" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK11" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL11" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM11" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN11" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO11" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP11" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ11" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR11" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS11" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT11" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU11" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV11" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW11" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX11" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AY11" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AZ11" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="P11" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q11" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="R11" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="S11" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="T11" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="U11" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="V11" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="W11" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="X11" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y11" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z11" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA11" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB11" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC11" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD11" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE11" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF11" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG11" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH11" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI11" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ11" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK11" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="AL11" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM11" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN11" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO11" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="AP11" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AQ11" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AR11" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="AS11" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="AT11" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU11" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="AV11" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AW11" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="AX11" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="AY11" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="AZ11" s="9" t="s">
-        <v>111</v>
-      </c>
       <c r="BA11" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="BB11" s="9" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="BC11" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BD11" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -3770,162 +3773,162 @@
       <c r="BD36" s="23"/>
     </row>
     <row r="37" spans="1:74" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="26" t="s">
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="26" t="s">
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="27"/>
-      <c r="S37" s="27"/>
-      <c r="T37" s="27"/>
-      <c r="U37" s="27"/>
-      <c r="V37" s="27"/>
-      <c r="W37" s="27"/>
-      <c r="X37" s="27"/>
-      <c r="Y37" s="27"/>
-      <c r="Z37" s="27"/>
-      <c r="AA37" s="28"/>
-      <c r="AB37" s="29" t="s">
+      <c r="Q37" s="40"/>
+      <c r="R37" s="40"/>
+      <c r="S37" s="40"/>
+      <c r="T37" s="40"/>
+      <c r="U37" s="40"/>
+      <c r="V37" s="40"/>
+      <c r="W37" s="40"/>
+      <c r="X37" s="40"/>
+      <c r="Y37" s="40"/>
+      <c r="Z37" s="40"/>
+      <c r="AA37" s="41"/>
+      <c r="AB37" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="AC37" s="29"/>
-      <c r="AD37" s="29"/>
-      <c r="AE37" s="26" t="s">
+      <c r="AC37" s="42"/>
+      <c r="AD37" s="42"/>
+      <c r="AE37" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="AF37" s="27"/>
-      <c r="AG37" s="27"/>
-      <c r="AH37" s="27"/>
-      <c r="AI37" s="27"/>
-      <c r="AJ37" s="27"/>
-      <c r="AK37" s="27"/>
-      <c r="AL37" s="27"/>
-      <c r="AM37" s="27"/>
-      <c r="AN37" s="27"/>
-      <c r="AO37" s="27"/>
-      <c r="AP37" s="28"/>
-      <c r="AQ37" s="26" t="s">
+      <c r="AF37" s="40"/>
+      <c r="AG37" s="40"/>
+      <c r="AH37" s="40"/>
+      <c r="AI37" s="40"/>
+      <c r="AJ37" s="40"/>
+      <c r="AK37" s="40"/>
+      <c r="AL37" s="40"/>
+      <c r="AM37" s="40"/>
+      <c r="AN37" s="40"/>
+      <c r="AO37" s="40"/>
+      <c r="AP37" s="41"/>
+      <c r="AQ37" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="AR37" s="27"/>
-      <c r="AS37" s="27"/>
-      <c r="AT37" s="27"/>
-      <c r="AU37" s="27"/>
-      <c r="AV37" s="27"/>
-      <c r="AW37" s="27"/>
-      <c r="AX37" s="27"/>
-      <c r="AY37" s="27"/>
-      <c r="AZ37" s="27"/>
-      <c r="BA37" s="27"/>
-      <c r="BB37" s="27"/>
-      <c r="BC37" s="27"/>
-      <c r="BD37" s="28"/>
+      <c r="AR37" s="40"/>
+      <c r="AS37" s="40"/>
+      <c r="AT37" s="40"/>
+      <c r="AU37" s="40"/>
+      <c r="AV37" s="40"/>
+      <c r="AW37" s="40"/>
+      <c r="AX37" s="40"/>
+      <c r="AY37" s="40"/>
+      <c r="AZ37" s="40"/>
+      <c r="BA37" s="40"/>
+      <c r="BB37" s="40"/>
+      <c r="BC37" s="40"/>
+      <c r="BD37" s="41"/>
     </row>
     <row r="38" spans="1:74" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="26" t="s">
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="26" t="s">
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="27"/>
-      <c r="S38" s="27"/>
-      <c r="T38" s="27"/>
-      <c r="U38" s="27"/>
-      <c r="V38" s="27"/>
-      <c r="W38" s="27"/>
-      <c r="X38" s="27"/>
-      <c r="Y38" s="27"/>
-      <c r="Z38" s="27"/>
-      <c r="AA38" s="28"/>
-      <c r="AB38" s="29"/>
-      <c r="AC38" s="29"/>
-      <c r="AD38" s="29"/>
-      <c r="AE38" s="26" t="s">
+      <c r="Q38" s="40"/>
+      <c r="R38" s="40"/>
+      <c r="S38" s="40"/>
+      <c r="T38" s="40"/>
+      <c r="U38" s="40"/>
+      <c r="V38" s="40"/>
+      <c r="W38" s="40"/>
+      <c r="X38" s="40"/>
+      <c r="Y38" s="40"/>
+      <c r="Z38" s="40"/>
+      <c r="AA38" s="41"/>
+      <c r="AB38" s="42"/>
+      <c r="AC38" s="42"/>
+      <c r="AD38" s="42"/>
+      <c r="AE38" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="AF38" s="27"/>
-      <c r="AG38" s="27"/>
-      <c r="AH38" s="27"/>
-      <c r="AI38" s="27"/>
-      <c r="AJ38" s="27"/>
-      <c r="AK38" s="27"/>
-      <c r="AL38" s="27"/>
-      <c r="AM38" s="27"/>
-      <c r="AN38" s="27"/>
-      <c r="AO38" s="27"/>
-      <c r="AP38" s="28"/>
-      <c r="AQ38" s="26" t="s">
+      <c r="AF38" s="40"/>
+      <c r="AG38" s="40"/>
+      <c r="AH38" s="40"/>
+      <c r="AI38" s="40"/>
+      <c r="AJ38" s="40"/>
+      <c r="AK38" s="40"/>
+      <c r="AL38" s="40"/>
+      <c r="AM38" s="40"/>
+      <c r="AN38" s="40"/>
+      <c r="AO38" s="40"/>
+      <c r="AP38" s="41"/>
+      <c r="AQ38" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="AR38" s="27"/>
-      <c r="AS38" s="27"/>
-      <c r="AT38" s="27"/>
-      <c r="AU38" s="27"/>
-      <c r="AV38" s="27"/>
-      <c r="AW38" s="27"/>
-      <c r="AX38" s="27"/>
-      <c r="AY38" s="27"/>
-      <c r="AZ38" s="27"/>
-      <c r="BA38" s="27"/>
-      <c r="BB38" s="27"/>
-      <c r="BC38" s="27"/>
-      <c r="BD38" s="28"/>
+      <c r="AR38" s="40"/>
+      <c r="AS38" s="40"/>
+      <c r="AT38" s="40"/>
+      <c r="AU38" s="40"/>
+      <c r="AV38" s="40"/>
+      <c r="AW38" s="40"/>
+      <c r="AX38" s="40"/>
+      <c r="AY38" s="40"/>
+      <c r="AZ38" s="40"/>
+      <c r="BA38" s="40"/>
+      <c r="BB38" s="40"/>
+      <c r="BC38" s="40"/>
+      <c r="BD38" s="41"/>
     </row>
     <row r="40" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="25"/>
-      <c r="Q40" s="25"/>
-      <c r="R40" s="25"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="38"/>
+      <c r="Q40" s="38"/>
+      <c r="R40" s="38"/>
       <c r="S40" s="19"/>
       <c r="T40" s="19"/>
       <c r="U40" s="19"/>
@@ -3985,18 +3988,17 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A4:BD4"/>
-    <mergeCell ref="AG6:BD6"/>
-    <mergeCell ref="AA6:AC6"/>
-    <mergeCell ref="AD6:AF6"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AB8"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AO7:AV7"/>
-    <mergeCell ref="AG7:AN7"/>
+    <mergeCell ref="A40:R40"/>
+    <mergeCell ref="AE37:AP37"/>
+    <mergeCell ref="AE38:AP38"/>
+    <mergeCell ref="AQ37:BD37"/>
+    <mergeCell ref="AQ38:BD38"/>
+    <mergeCell ref="A37:C38"/>
+    <mergeCell ref="AB37:AD38"/>
+    <mergeCell ref="P37:AA37"/>
+    <mergeCell ref="P38:AA38"/>
+    <mergeCell ref="D37:O37"/>
+    <mergeCell ref="D38:O38"/>
     <mergeCell ref="AS1:BD1"/>
     <mergeCell ref="AS2:BD2"/>
     <mergeCell ref="A5:BD5"/>
@@ -4013,17 +4015,18 @@
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="Q7:U7"/>
     <mergeCell ref="AS3:BD3"/>
-    <mergeCell ref="A40:R40"/>
-    <mergeCell ref="AE37:AP37"/>
-    <mergeCell ref="AE38:AP38"/>
-    <mergeCell ref="AQ37:BD37"/>
-    <mergeCell ref="AQ38:BD38"/>
-    <mergeCell ref="A37:C38"/>
-    <mergeCell ref="AB37:AD38"/>
-    <mergeCell ref="P37:AA37"/>
-    <mergeCell ref="P38:AA38"/>
-    <mergeCell ref="D37:O37"/>
-    <mergeCell ref="D38:O38"/>
+    <mergeCell ref="A4:BD4"/>
+    <mergeCell ref="AG6:BD6"/>
+    <mergeCell ref="AA6:AC6"/>
+    <mergeCell ref="AD6:AF6"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AO7:AV7"/>
+    <mergeCell ref="AG7:AN7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4036,65 +4039,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <WorkflowID xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8">132</WorkflowID>
+    <DocumentCategory xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8">434;#Tài liệu tham khảo</DocumentCategory>
+    <Required xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8" xsi:nil="true"/>
+    <Abstract xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8" xsi:nil="true"/>
+    <WorkflowURL xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8">&lt;a href='/workflow/SitePages/Workflow.aspx?mode=2&amp;LID=5a1da0f5-24cd-4298-b5a1-9368a976217d&amp;itemID=34962' target='_blank'&gt;OS250228090&lt;/a&gt;</WorkflowURL>
+    <Workflow xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8">Quy trình Trình ký online</Workflow>
+    <RequestCode xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8">OS250228090</RequestCode>
+    <DocumentCategoryData xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8" xsi:nil="true"/>
+    <DocumentCategoryID xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8">434</DocumentCategoryID>
+    <Index xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8" xsi:nil="true"/>
+    <WorkflowStatus xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8">Soạn thảo</WorkflowStatus>
+    <_dlc_DocId xmlns="37731f6e-0f2d-4bf4-b84c-108a697c7149">JSJPMY3Q7F3Z-1563364037-173690</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="37731f6e-0f2d-4bf4-b84c-108a697c7149">
+      <Url>https://eoffice.hoaphat.com.vn/record25/dungquat/_layouts/15/DocIdRedir.aspx?ID=JSJPMY3Q7F3Z-1563364037-173690</Url>
+      <Description>JSJPMY3Q7F3Z-1563364037-173690</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010043A6F74638767E458E74B506E0539C9A" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dc88bab3dd1fde8a3b2d86049cdcf0d0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="37731f6e-0f2d-4bf4-b84c-108a697c7149" xmlns:ns3="3ebebb59-d252-4474-a666-98fef1a0d5d8" xmlns:ns4="9ccb041b-7f56-4b5e-ab74-cc763d6e513d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ddf5f1867867e56db45d849cd2a8eb13" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="37731f6e-0f2d-4bf4-b84c-108a697c7149"/>
@@ -4349,46 +4316,77 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <WorkflowID xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8">132</WorkflowID>
-    <DocumentCategory xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8">434;#Tài liệu tham khảo</DocumentCategory>
-    <Required xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8" xsi:nil="true"/>
-    <Abstract xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8" xsi:nil="true"/>
-    <WorkflowURL xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8">&lt;a href='/workflow/SitePages/Workflow.aspx?mode=2&amp;LID=5a1da0f5-24cd-4298-b5a1-9368a976217d&amp;itemID=34962' target='_blank'&gt;OS250228090&lt;/a&gt;</WorkflowURL>
-    <Workflow xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8">Quy trình Trình ký online</Workflow>
-    <RequestCode xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8">OS250228090</RequestCode>
-    <DocumentCategoryData xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8" xsi:nil="true"/>
-    <DocumentCategoryID xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8">434</DocumentCategoryID>
-    <Index xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8" xsi:nil="true"/>
-    <WorkflowStatus xmlns="3ebebb59-d252-4474-a666-98fef1a0d5d8">Soạn thảo</WorkflowStatus>
-    <_dlc_DocId xmlns="37731f6e-0f2d-4bf4-b84c-108a697c7149">JSJPMY3Q7F3Z-1563364037-173690</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="37731f6e-0f2d-4bf4-b84c-108a697c7149">
-      <Url>https://eoffice.hoaphat.com.vn/record25/dungquat/_layouts/15/DocIdRedir.aspx?ID=JSJPMY3Q7F3Z-1563364037-173690</Url>
-      <Description>JSJPMY3Q7F3Z-1563364037-173690</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE2E1E89-46C9-4EC7-ACF1-D0D748ED64DE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F41FD8B-B584-4AEF-88A0-91DFA0AAA3F7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3ebebb59-d252-4474-a666-98fef1a0d5d8"/>
+    <ds:schemaRef ds:uri="37731f6e-0f2d-4bf4-b84c-108a697c7149"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0592CEA5-83CD-4C2C-B562-ABC43B9A4D35}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3C691F1-0CA0-4CE7-B5A4-9D271BB766D7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4408,13 +4406,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0592CEA5-83CD-4C2C-B562-ABC43B9A4D35}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F41FD8B-B584-4AEF-88A0-91DFA0AAA3F7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE2E1E89-46C9-4EC7-ACF1-D0D748ED64DE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3ebebb59-d252-4474-a666-98fef1a0d5d8"/>
-    <ds:schemaRef ds:uri="37731f6e-0f2d-4bf4-b84c-108a697c7149"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>